--- a/biology/Zoologie/Azuré_de_la_surelle/Azuré_de_la_surelle.xlsx
+++ b/biology/Zoologie/Azuré_de_la_surelle/Azuré_de_la_surelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_surelle</t>
+          <t>Azuré_de_la_surelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zizeeria knysna
 L’Azuré de la surelle ou Azuré de Trimen (Zizeeria knysna) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Zizeeria.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_surelle</t>
+          <t>Azuré_de_la_surelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zizeeria knysna (Roland Trimen, 1862)
-Synonymes : Lycaena knysna (Trimen, 1862) et Papilio lysimon (Hübner, 1803)[1].
-Noms vernaculaires
-L’Azuré de la surelle ou Azuré de Trimen se nomme en anglais African Grass Blue ou Dark Grass Blue.
+Synonymes : Lycaena knysna (Trimen, 1862) et Papilio lysimon (Hübner, 1803).
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_surelle</t>
+          <t>Azuré_de_la_surelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un très petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu foncé presque violet bordé d'une marge noire plus ou moins importante, celui de la femelle est marron plus ou moins suffusé de bleu.
-Le revers est ocre pâle orné de lignes de petits points noirs cernés de blanc.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré de la surelle ou Azuré de Trimen se nomme en anglais African Grass Blue ou Dark Grass Blue.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_surelle</t>
+          <t>Azuré_de_la_surelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les œufs sont parasités par Catosia cupreus.
-La chenille est soignée par les fourmis Tapinoma melanocephalum et Pheidole[2].
-Période de vol et hivernation
-Il vole en plusieurs générations, de février à octobre en Espagne et Afrique du Nord, toute l'année aux Canaries[2].
-Plantes hôtes
-Ses plantes hôtes sont nombreuses notamment des Amaranthus, des Oxalis, des Medicago (Medicago minima et Medicago sativa), Trifolium pratense et Trifolium repens[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu foncé presque violet bordé d'une marge noire plus ou moins importante, celui de la femelle est marron plus ou moins suffusé de bleu.
+Le revers est ocre pâle orné de lignes de petits points noirs cernés de blanc.
 </t>
         </is>
       </c>
@@ -596,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_surelle</t>
+          <t>Azuré_de_la_surelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,16 +626,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont parasités par Catosia cupreus.
+La chenille est soignée par les fourmis Tapinoma melanocephalum et Pheidole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en plusieurs générations, de février à octobre en Espagne et Afrique du Nord, toute l'année aux Canaries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont nombreuses notamment des Amaranthus, des Oxalis, des Medicago (Medicago minima et Medicago sativa), Trifolium pratense et Trifolium repens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans toute l'Afrique, à Madagascar, aux Mascareignes (dont La Réunion et l'ile Maurice) aux Îles Canaries, en Afrique du Nord, en Sicile, en Crète, à Chypre et en Espagne sur la bordure méditerranéenne[1],[2].
-Biotope
-Son habitat est constitué de lieux humides, oasis, clairières, vallées côtières.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Afrique, à Madagascar, aux Mascareignes (dont La Réunion et l'ile Maurice) aux Îles Canaries, en Afrique du Nord, en Sicile, en Crète, à Chypre et en Espagne sur la bordure méditerranéenne,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est constitué de lieux humides, oasis, clairières, vallées côtières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_surelle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
